--- a/Input_files/Actual_testcases/Kaman/LogixalQABox2/ALL_PAGES/END_TO_END/TC31_Verify_login.xlsx
+++ b/Input_files/Actual_testcases/Kaman/LogixalQABox2/ALL_PAGES/END_TO_END/TC31_Verify_login.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMANLiveBranch\Input_files\Actual_testcases\Kaman\LogixalQABox2\ALL_PAGES\END_TO_END\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5DE8C8-2EE2-41C6-A391-C72FEA6F501C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC31_Verify_login" sheetId="1" r:id="rId1"/>
     <sheet name="Testdata" sheetId="12" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -90,9 +86,6 @@
     <t>MyaccountSection</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
     <t>TC31_Verify_login</t>
   </si>
   <si>
@@ -136,12 +129,15 @@
   </si>
   <si>
     <t>EnableCertificate_GoTOPage</t>
+  </si>
+  <si>
+    <t>Logout_RegisteredUser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -551,11 +547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -586,7 +582,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -600,16 +596,16 @@
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -624,16 +620,16 @@
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -657,13 +653,13 @@
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -673,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -689,7 +685,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
@@ -704,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>14</v>
@@ -716,10 +712,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -741,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -763,7 +759,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
@@ -772,13 +768,13 @@
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -788,10 +784,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -803,7 +799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -829,7 +825,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -837,7 +833,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -845,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -874,18 +870,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -903,12 +899,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1105,6 +1095,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
@@ -1114,15 +1110,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1139,4 +1126,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>